--- a/data/MP  nesting summary for Honours.xlsx
+++ b/data/MP  nesting summary for Honours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luketheduke2/Documents/Academic/projects/hooded_plover_nest_survival/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B414C67-C9D7-844E-B7FD-56300A5A281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D061B-A3D3-A441-8AC3-C310F538F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,10 +1648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="171" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="V61" sqref="V61"/>
+      <selection pane="bottomLeft" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6184,25 +6184,25 @@
     </row>
     <row r="49" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="18">
-        <v>44201</v>
+        <v>44169</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -6212,10 +6212,10 @@
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
       <c r="M49" s="17">
-        <v>-38.405738999999997</v>
+        <v>-38.396667000000001</v>
       </c>
       <c r="N49" s="17">
-        <v>144.80723599999999</v>
+        <v>144.79556299999999</v>
       </c>
       <c r="O49" s="17">
         <v>3</v>
@@ -6224,22 +6224,22 @@
         <v>3</v>
       </c>
       <c r="Q49" s="17">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="R49" s="17">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S49" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T49" s="18">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="U49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="V49" s="18">
-        <v>44210</v>
+      <c r="V49" s="9">
+        <v>44204</v>
       </c>
       <c r="W49" s="17" t="s">
         <v>107</v>
@@ -6253,13 +6253,13 @@
       <c r="Z49" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="AA49" s="18"/>
       <c r="AD49" s="17">
         <v>0</v>
       </c>
       <c r="AE49" s="17">
         <v>0</v>
       </c>
+      <c r="AF49" s="18"/>
       <c r="AX49" s="17" t="s">
         <v>117</v>
       </c>
@@ -6270,27 +6270,27 @@
         <v>116</v>
       </c>
       <c r="BC49" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>82</v>
-      </c>
       <c r="E50" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="18">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>107</v>
@@ -6303,22 +6303,22 @@
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
       <c r="M50" s="17">
-        <v>-38.362361999999997</v>
+        <v>-38.405738999999997</v>
       </c>
       <c r="N50" s="17">
-        <v>144.75074799999999</v>
+        <v>144.80723599999999</v>
       </c>
       <c r="O50" s="17">
-        <v>1</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="P50" s="17">
+        <v>3</v>
       </c>
       <c r="Q50" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R50" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S50" s="17" t="s">
         <v>117</v>
@@ -6342,8 +6342,9 @@
         <v>116</v>
       </c>
       <c r="Z50" s="17" t="s">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AA50" s="18"/>
       <c r="AD50" s="17">
         <v>0</v>
       </c>
@@ -6365,62 +6366,62 @@
     </row>
     <row r="51" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="E51" s="17">
         <v>3</v>
       </c>
       <c r="F51" s="18">
-        <v>44187</v>
+        <v>44203</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K51" s="19">
-        <v>-38.433919000000003</v>
-      </c>
-      <c r="L51" s="19">
-        <v>144.84311299999999</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="17">
+        <v>-38.362361999999997</v>
+      </c>
+      <c r="N51" s="17">
+        <v>144.75074799999999</v>
+      </c>
       <c r="O51" s="17">
-        <v>3</v>
-      </c>
-      <c r="P51" s="17">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="Q51" s="17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R51" s="17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S51" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T51" s="18">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="U51" s="17" t="s">
         <v>107</v>
       </c>
       <c r="V51" s="18">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>107</v>
@@ -6432,7 +6433,7 @@
         <v>116</v>
       </c>
       <c r="Z51" s="17" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="AD51" s="17">
         <v>0</v>
@@ -6449,28 +6450,28 @@
       <c r="BB51" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BC51" s="6" t="s">
-        <v>278</v>
+      <c r="BC51" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E52" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="18">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>104</v>
@@ -6480,31 +6481,31 @@
       <c r="J52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="17">
-        <v>-38.30827</v>
-      </c>
-      <c r="N52" s="17">
-        <v>144.668823</v>
-      </c>
-      <c r="O52" s="21">
-        <v>2</v>
+      <c r="K52" s="19">
+        <v>-38.433919000000003</v>
+      </c>
+      <c r="L52" s="19">
+        <v>144.84311299999999</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="17">
+        <v>3</v>
       </c>
       <c r="P52" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R52" s="17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S52" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T52" s="18">
-        <v>44208</v>
+        <v>44211</v>
       </c>
       <c r="U52" s="17" t="s">
         <v>107</v>
@@ -6516,13 +6517,13 @@
         <v>107</v>
       </c>
       <c r="X52" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y52" s="17" t="s">
         <v>116</v>
       </c>
       <c r="Z52" s="17" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="AD52" s="17">
         <v>0</v>
@@ -6539,16 +6540,16 @@
       <c r="BB52" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BC52" s="17" t="s">
-        <v>119</v>
+      <c r="BC52" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>82</v>
@@ -6560,59 +6561,59 @@
         <v>2</v>
       </c>
       <c r="F53" s="18">
-        <v>44202</v>
+        <v>44188</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K53" s="19">
-        <v>-38.326014999999998</v>
-      </c>
-      <c r="L53" s="19">
-        <v>144.68886599999999</v>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="17">
-        <v>3</v>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="17">
+        <v>-38.30827</v>
+      </c>
+      <c r="N53" s="17">
+        <v>144.668823</v>
+      </c>
+      <c r="O53" s="21">
+        <v>2</v>
       </c>
       <c r="P53" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R53" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S53" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T53" s="18">
-        <v>44202</v>
+        <v>44208</v>
       </c>
       <c r="U53" s="17" t="s">
         <v>107</v>
       </c>
       <c r="V53" s="18">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="W53" s="17" t="s">
         <v>107</v>
       </c>
       <c r="X53" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y53" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z53" s="17" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="AD53" s="17">
         <v>0</v>
@@ -6627,33 +6628,33 @@
         <v>0</v>
       </c>
       <c r="BB53" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BC53" s="17" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E54" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F54" s="18">
-        <v>44189</v>
+        <v>44202</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -6661,10 +6662,10 @@
         <v>108</v>
       </c>
       <c r="K54" s="19">
-        <v>-38.420796000000003</v>
+        <v>-38.326014999999998</v>
       </c>
       <c r="L54" s="19">
-        <v>144.82604000000001</v>
+        <v>144.68886599999999</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -6674,23 +6675,23 @@
       <c r="P54" s="17">
         <v>3</v>
       </c>
-      <c r="Q54" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="R54" s="22" t="s">
-        <v>287</v>
+      <c r="Q54" s="17">
+        <v>2</v>
+      </c>
+      <c r="R54" s="17">
+        <v>2</v>
       </c>
       <c r="S54" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T54" s="18">
-        <v>44215</v>
+        <v>44202</v>
       </c>
       <c r="U54" s="17" t="s">
         <v>107</v>
       </c>
       <c r="V54" s="18">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="W54" s="17" t="s">
         <v>107</v>
@@ -6699,12 +6700,11 @@
         <v>117</v>
       </c>
       <c r="Y54" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z54" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA54" s="18"/>
+        <v>113</v>
+      </c>
       <c r="AD54" s="17">
         <v>0</v>
       </c>
@@ -6718,30 +6718,30 @@
         <v>0</v>
       </c>
       <c r="BB54" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BC54" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E55" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" s="18">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>104</v>
@@ -6751,25 +6751,25 @@
       <c r="J55" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="17">
-        <v>-38.341076000000001</v>
-      </c>
-      <c r="N55" s="17">
-        <v>144.716385</v>
-      </c>
+      <c r="K55" s="19">
+        <v>-38.420796000000003</v>
+      </c>
+      <c r="L55" s="19">
+        <v>144.82604000000001</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
       <c r="O55" s="17">
         <v>3</v>
       </c>
       <c r="P55" s="17">
         <v>3</v>
       </c>
-      <c r="Q55" s="17">
-        <v>14</v>
-      </c>
-      <c r="R55" s="17">
-        <v>10</v>
+      <c r="Q55" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="R55" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="S55" s="17" t="s">
         <v>117</v>
@@ -6781,7 +6781,7 @@
         <v>107</v>
       </c>
       <c r="V55" s="18">
-        <v>44221</v>
+        <v>44216</v>
       </c>
       <c r="W55" s="17" t="s">
         <v>107</v>
@@ -6790,11 +6790,12 @@
         <v>117</v>
       </c>
       <c r="Y55" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AA55" s="18"/>
       <c r="AD55" s="17">
         <v>0</v>
       </c>
@@ -6810,137 +6811,118 @@
       <c r="BB55" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="BC55" s="6" t="s">
-        <v>299</v>
+      <c r="BC55" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
-        <v>8</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="15">
-        <v>2</v>
-      </c>
-      <c r="F56" s="16">
-        <v>44222</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="E56" s="17">
+        <v>2</v>
+      </c>
+      <c r="F56" s="18">
+        <v>44194</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="17">
+        <v>-38.341076000000001</v>
+      </c>
+      <c r="N56" s="17">
+        <v>144.716385</v>
+      </c>
+      <c r="O56" s="17">
+        <v>3</v>
+      </c>
+      <c r="P56" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>14</v>
+      </c>
+      <c r="R56" s="17">
+        <v>10</v>
+      </c>
+      <c r="S56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T56" s="18">
+        <v>44215</v>
+      </c>
+      <c r="U56" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15">
-        <v>-38.461365000000001</v>
-      </c>
-      <c r="N56" s="15">
-        <v>144.87297100000001</v>
-      </c>
-      <c r="O56" s="15">
-        <v>2</v>
-      </c>
-      <c r="P56" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="16">
-        <v>44228</v>
-      </c>
-      <c r="W56" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="15"/>
-      <c r="AG56" s="15"/>
-      <c r="AH56" s="15"/>
-      <c r="AI56" s="15"/>
-      <c r="AJ56" s="15"/>
-      <c r="AK56" s="15"/>
-      <c r="AL56" s="15"/>
-      <c r="AM56" s="15"/>
-      <c r="AN56" s="15"/>
-      <c r="AO56" s="15"/>
-      <c r="AP56" s="15"/>
-      <c r="AQ56" s="15"/>
-      <c r="AR56" s="15"/>
-      <c r="AS56" s="15"/>
-      <c r="AT56" s="15"/>
-      <c r="AU56" s="15"/>
-      <c r="AV56" s="15"/>
-      <c r="AW56" s="15"/>
-      <c r="AX56" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ56" s="15"/>
-      <c r="BA56" s="15"/>
-      <c r="BB56" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC56" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD56" s="15"/>
-      <c r="BE56" s="15"/>
-      <c r="BF56" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="BG56" s="15"/>
+      <c r="V56" s="18">
+        <v>44221</v>
+      </c>
+      <c r="W56" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY56" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC56" s="6" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="57" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E57" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F57" s="16">
-        <v>44217</v>
+        <v>44222</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>107</v>
@@ -6950,51 +6932,41 @@
       <c r="J57" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
       <c r="M57" s="15">
-        <v>-38.405738999999997</v>
+        <v>-38.461365000000001</v>
       </c>
       <c r="N57" s="15">
-        <v>144.80723599999999</v>
+        <v>144.87297100000001</v>
       </c>
       <c r="O57" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="15">
-        <v>4</v>
-      </c>
-      <c r="R57" s="15">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
       <c r="S57" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="T57" s="16">
-        <v>44224</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
       <c r="V57" s="16">
         <v>44228</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="X57" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y57" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA57" s="16"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z57" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="15">
@@ -7030,126 +7002,155 @@
       <c r="AZ57" s="15"/>
       <c r="BA57" s="15"/>
       <c r="BB57" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BC57" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BD57" s="15"/>
       <c r="BE57" s="15"/>
       <c r="BF57" s="15" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="BG57" s="15"/>
     </row>
     <row r="58" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
-        <v>80</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="17">
-        <v>3</v>
-      </c>
-      <c r="F58" s="18">
-        <v>44223</v>
-      </c>
-      <c r="G58" s="17" t="s">
+      <c r="E58" s="15">
+        <v>5</v>
+      </c>
+      <c r="F58" s="16">
+        <v>44217</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="17">
-        <v>-38.30827</v>
-      </c>
-      <c r="N58" s="17">
-        <v>144.668823</v>
-      </c>
-      <c r="O58" s="21">
-        <v>2</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q58" s="17">
-        <v>2</v>
-      </c>
-      <c r="R58" s="17">
-        <v>2</v>
-      </c>
-      <c r="S58" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="T58" s="18">
-        <v>44223</v>
-      </c>
-      <c r="U58" s="17" t="s">
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="15">
+        <v>-38.405738999999997</v>
+      </c>
+      <c r="N58" s="15">
+        <v>144.80723599999999</v>
+      </c>
+      <c r="O58" s="15">
+        <v>1</v>
+      </c>
+      <c r="P58" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>4</v>
+      </c>
+      <c r="R58" s="15">
+        <v>3</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T58" s="16">
+        <v>44224</v>
+      </c>
+      <c r="U58" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="V58" s="18">
-        <v>44230</v>
-      </c>
-      <c r="W58" s="17" t="s">
+      <c r="V58" s="16">
+        <v>44228</v>
+      </c>
+      <c r="W58" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="X58" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y58" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z58" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD58" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY58" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB58" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC58" s="17" t="s">
+      <c r="X58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="15"/>
+      <c r="AM58" s="15"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="15"/>
+      <c r="AQ58" s="15"/>
+      <c r="AR58" s="15"/>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="15"/>
+      <c r="AX58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="15"/>
+      <c r="BA58" s="15"/>
+      <c r="BB58" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC58" s="15" t="s">
         <v>119</v>
       </c>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="15"/>
+      <c r="BF58" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG58" s="15"/>
     </row>
     <row r="59" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E59" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" s="18">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>107</v>
@@ -7157,39 +7158,39 @@
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K59" s="19">
-        <v>-38.433847999999998</v>
-      </c>
-      <c r="L59" s="19">
-        <v>144.84315599999999</v>
-      </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="17">
+        <v>109</v>
+      </c>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="17">
+        <v>-38.30827</v>
+      </c>
+      <c r="N59" s="17">
+        <v>144.668823</v>
+      </c>
+      <c r="O59" s="21">
         <v>2</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="Q59" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R59" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S59" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T59" s="18">
-        <v>44235</v>
+        <v>44223</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="V59" s="18">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="W59" s="17" t="s">
         <v>135</v>
@@ -7201,9 +7202,8 @@
         <v>116</v>
       </c>
       <c r="Z59" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA59" s="18"/>
+        <v>146</v>
+      </c>
       <c r="AD59" s="17">
         <v>0</v>
       </c>
@@ -7220,70 +7220,70 @@
         <v>116</v>
       </c>
       <c r="BC59" s="17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E60" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="18">
-        <v>44169</v>
+        <v>44227</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="17">
-        <v>-38.396667000000001</v>
-      </c>
-      <c r="N60" s="17">
-        <v>144.79556299999999</v>
-      </c>
+      <c r="K60" s="19">
+        <v>-38.433847999999998</v>
+      </c>
+      <c r="L60" s="19">
+        <v>144.84315599999999</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="17">
-        <v>3</v>
-      </c>
-      <c r="P60" s="17">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="Q60" s="17">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R60" s="17">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="S60" s="17" t="s">
         <v>117</v>
       </c>
       <c r="T60" s="18">
-        <v>44201</v>
+        <v>44235</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="V60" s="9">
-        <v>44204</v>
+        <v>135</v>
+      </c>
+      <c r="V60" s="18">
+        <v>44239</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="X60" s="17" t="s">
         <v>117</v>
@@ -7292,15 +7292,15 @@
         <v>116</v>
       </c>
       <c r="Z60" s="17" t="s">
-        <v>163</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AA60" s="18"/>
       <c r="AD60" s="17">
         <v>0</v>
       </c>
       <c r="AE60" s="17">
         <v>0</v>
       </c>
-      <c r="AF60" s="18"/>
       <c r="AX60" s="17" t="s">
         <v>117</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>116</v>
       </c>
       <c r="BC60" s="17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -9877,7 +9877,7 @@
       <c r="N85" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG85">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BG85">
     <sortCondition ref="V2:V85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
